--- a/Hardware/TSLA.xlsx
+++ b/Hardware/TSLA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Desktop/stocks/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDE7036C-854B-1445-8618-DF141168009F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B8DCED-F551-5441-8C12-514A20FB817D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{E608DFD5-05DA-0349-8261-C0D7D558308B}"/>
   </bookViews>
@@ -1940,11 +1940,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>289.58999999999997</v>
+    <v>299.75</v>
     <v>138.80250000000001</v>
-    <v>2.3020999999999998</v>
-    <v>37.090000000000003</v>
-    <v>0.14751</v>
+    <v>2.3075999999999999</v>
+    <v>8.3800000000000008</v>
+    <v>2.9044E-2</v>
+    <v>1.99</v>
+    <v>6.7020000000000005E-3</v>
     <v>USD</v>
     <v>Tesla, Inc. designs, develops, manufactures, sells and leases high-performance fully electric vehicles and energy generation and storage systems, and offers services related to its products. The Company's segments include automotive, and energy generation and storage. The automotive segment includes the design, development, manufacturing, sales and leasing of high-performance fully electric vehicles, and sales of automotive regulatory credits. It also includes sales of used vehicles, non-warranty after-sales vehicle services, body shop and parts, paid supercharging, vehicle insurance and retail merchandise. Its consumer vehicles include the Model 3, Y, S, X and Cybertruck. The energy generation and storage segment includes the design, manufacture, installation, sales and leasing of solar energy generation and energy storage products and related services and sales of solar energy systems incentives. Its lithium-ion battery energy storage products include Powerwall and Megapack.</v>
     <v>140473</v>
@@ -1952,24 +1954,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1 Tesla Road, AUSTIN, TX, 78725 US</v>
-    <v>289.58999999999997</v>
+    <v>299.75</v>
     <v>Automobiles &amp; Auto Parts</v>
     <v>Stock</v>
-    <v>45602.935105821096</v>
+    <v>45604.041662117968</v>
     <v>0</v>
-    <v>275.62</v>
-    <v>926198611799</v>
+    <v>285.52</v>
+    <v>953098914600</v>
     <v>TESLA, INC.</v>
     <v>TESLA, INC.</v>
-    <v>284.67</v>
-    <v>79.11</v>
-    <v>251.44</v>
+    <v>288.89</v>
+    <v>81.408299999999997</v>
     <v>288.52999999999997</v>
+    <v>296.91000000000003</v>
+    <v>298.89999999999998</v>
     <v>3210060000</v>
     <v>TSLA</v>
     <v>TESLA, INC. (XNAS:TSLA)</v>
-    <v>268548</v>
-    <v>80767713</v>
+    <v>117309232</v>
+    <v>83617504</v>
     <v>2024</v>
   </rv>
   <rv s="2">
@@ -2001,6 +2004,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2021,6 +2026,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2037,7 +2043,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2048,13 +2054,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2120,13 +2129,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2171,6 +2186,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2178,6 +2196,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2878,14 +2899,14 @@
     <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="37" cm="1">
         <f t="array" aca="1" ref="A3" ca="1">_FV(A1,"Price")</f>
-        <v>288.52999999999997</v>
+        <v>296.91000000000003</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="41">
         <f ca="1">A5/F10</f>
-        <v>9.3103066092922262</v>
+        <v>9.5807130467124377</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>26</v>
@@ -2925,14 +2946,14 @@
     <row r="4" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="38" cm="1">
         <f t="array" aca="1" ref="A4" ca="1">_FV(A1,"Change (%)",TRUE)</f>
-        <v>0.14751</v>
+        <v>2.9044E-2</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="41">
         <f ca="1">A5/F15</f>
-        <v>107.26098573236827</v>
+        <v>110.3762495193978</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>25</v>
@@ -2973,14 +2994,14 @@
     <row r="5" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="39" cm="1">
         <f t="array" aca="1" ref="A5" ca="1">_FV(A1,"Market cap",TRUE)</f>
-        <v>926198611799</v>
+        <v>953098914600</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="42">
         <f ca="1">F18/A5</f>
-        <v>4.4504493393632298E-3</v>
+        <v>4.3248396749354561E-3</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>24</v>
@@ -3022,7 +3043,7 @@
     <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="40" cm="1">
         <f t="array" aca="1" ref="A6" ca="1">_FV(A1,"Beta")</f>
-        <v>2.3020999999999998</v>
+        <v>2.3075999999999999</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>18</v>
@@ -3054,7 +3075,7 @@
       </c>
       <c r="K6" s="48">
         <f ca="1">K5/A3-1</f>
-        <v>-0.75097360511447364</v>
+        <v>-0.75800213628264146</v>
       </c>
       <c r="L6" s="15" t="s">
         <v>13</v>

--- a/Hardware/TSLA.xlsx
+++ b/Hardware/TSLA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Desktop/stocks/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B8DCED-F551-5441-8C12-514A20FB817D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{861843D4-D505-C341-AA77-4937DFA7144E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{E608DFD5-05DA-0349-8261-C0D7D558308B}"/>
   </bookViews>
@@ -1940,13 +1940,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>299.75</v>
+    <v>358.64</v>
     <v>138.80250000000001</v>
-    <v>2.3075999999999999</v>
-    <v>8.3800000000000008</v>
-    <v>2.9044E-2</v>
-    <v>1.99</v>
-    <v>6.7020000000000005E-3</v>
+    <v>2.3349000000000002</v>
+    <v>7.26</v>
+    <v>2.1432000000000003E-2</v>
+    <v>-1.01</v>
+    <v>-2.9189999999999997E-3</v>
     <v>USD</v>
     <v>Tesla, Inc. designs, develops, manufactures, sells and leases high-performance fully electric vehicles and energy generation and storage systems, and offers services related to its products. The Company's segments include automotive, and energy generation and storage. The automotive segment includes the design, development, manufacturing, sales and leasing of high-performance fully electric vehicles, and sales of automotive regulatory credits. It also includes sales of used vehicles, non-warranty after-sales vehicle services, body shop and parts, paid supercharging, vehicle insurance and retail merchandise. Its consumer vehicles include the Model 3, Y, S, X and Cybertruck. The energy generation and storage segment includes the design, manufacture, installation, sales and leasing of solar energy generation and energy storage products and related services and sales of solar energy systems incentives. Its lithium-ion battery energy storage products include Powerwall and Megapack.</v>
     <v>140473</v>
@@ -1954,25 +1954,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1 Tesla Road, AUSTIN, TX, 78725 US</v>
-    <v>299.75</v>
+    <v>347.37990000000002</v>
     <v>Automobiles &amp; Auto Parts</v>
     <v>Stock</v>
-    <v>45604.041662117968</v>
+    <v>45616.041666388279</v>
     <v>0</v>
-    <v>285.52</v>
-    <v>953098914600</v>
+    <v>332.75</v>
+    <v>1110680760000</v>
     <v>TESLA, INC.</v>
     <v>TESLA, INC.</v>
-    <v>288.89</v>
-    <v>81.408299999999997</v>
-    <v>288.52999999999997</v>
-    <v>296.91000000000003</v>
-    <v>298.89999999999998</v>
+    <v>335.76</v>
+    <v>92.877499999999998</v>
+    <v>338.74</v>
+    <v>346</v>
+    <v>344.99</v>
     <v>3210060000</v>
     <v>TSLA</v>
     <v>TESLA, INC. (XNAS:TSLA)</v>
-    <v>117309232</v>
-    <v>83617504</v>
+    <v>88852452</v>
+    <v>103829094</v>
     <v>2024</v>
   </rv>
   <rv s="2">
@@ -2899,14 +2899,14 @@
     <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="37" cm="1">
         <f t="array" aca="1" ref="A3" ca="1">_FV(A1,"Price")</f>
-        <v>296.91000000000003</v>
+        <v>346</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="41">
         <f ca="1">A5/F10</f>
-        <v>9.5807130467124377</v>
+        <v>11.164752666338297</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>26</v>
@@ -2946,14 +2946,14 @@
     <row r="4" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="38" cm="1">
         <f t="array" aca="1" ref="A4" ca="1">_FV(A1,"Change (%)",TRUE)</f>
-        <v>2.9044E-2</v>
+        <v>2.1432000000000003E-2</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="41">
         <f ca="1">A5/F15</f>
-        <v>110.3762495193978</v>
+        <v>128.62544991314419</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>25</v>
@@ -2994,14 +2994,14 @@
     <row r="5" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="39" cm="1">
         <f t="array" aca="1" ref="A5" ca="1">_FV(A1,"Market cap",TRUE)</f>
-        <v>953098914600</v>
+        <v>1110680760000</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="42">
         <f ca="1">F18/A5</f>
-        <v>4.3248396749354561E-3</v>
+        <v>3.7112374216331971E-3</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>24</v>
@@ -3043,7 +3043,7 @@
     <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="40" cm="1">
         <f t="array" aca="1" ref="A6" ca="1">_FV(A1,"Beta")</f>
-        <v>2.3075999999999999</v>
+        <v>2.3349000000000002</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>18</v>
@@ -3075,7 +3075,7 @@
       </c>
       <c r="K6" s="48">
         <f ca="1">K5/A3-1</f>
-        <v>-0.75800213628264146</v>
+        <v>-0.79233645746728065</v>
       </c>
       <c r="L6" s="15" t="s">
         <v>13</v>
